--- a/test1.xlsx
+++ b/test1.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/opt/LMCO/git/notebooks/Notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/opt/SCHAS/git/Notebooks/PyUtils/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1180" windowWidth="22020" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="5820" yWindow="1180" windowWidth="22020" windowHeight="16820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>2016-2026</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>2016-2027</t>
   </si>
@@ -38,31 +32,28 @@
     <t>Normals</t>
   </si>
   <si>
-    <t>Manned Space</t>
-  </si>
-  <si>
-    <t>Deep Space</t>
-  </si>
-  <si>
-    <t>Resupply</t>
-  </si>
-  <si>
-    <t>Space Station/LEO</t>
-  </si>
-  <si>
-    <t>Satellites/Probes</t>
-  </si>
-  <si>
-    <t>Communications</t>
-  </si>
-  <si>
-    <t>Navigation</t>
-  </si>
-  <si>
-    <t>Orbital Probes</t>
-  </si>
-  <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Tst1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>jk</t>
+  </si>
+  <si>
+    <t>fg</t>
+  </si>
+  <si>
+    <t>dsf</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>2000-2014</t>
   </si>
 </sst>
 </file>
@@ -469,21 +460,26 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -555,7 +551,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="9">
         <v>6</v>
@@ -568,7 +564,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="9">
         <v>89</v>
@@ -581,7 +577,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="9">
         <v>9</v>
@@ -594,7 +590,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B10" s="11">
         <f>SUM(B2:B9)</f>
